--- a/ta/TRTS-4S屏柵線.xlsx
+++ b/ta/TRTS-4S屏柵線.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20899E6-5803-4BCB-BB80-B81404E5FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F3F97-63FE-492E-ABAC-6F4B9DD80552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
   <sheets>
     <sheet name="節點編號" sheetId="1" r:id="rId1"/>
-    <sheet name="實際流量" sheetId="3" r:id="rId2"/>
-    <sheet name="屏柵線觀察" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
+    <sheet name="晨峰實際流量" sheetId="6" r:id="rId2"/>
+    <sheet name="昏峰實際流量" sheetId="3" r:id="rId3"/>
+    <sheet name="屏柵線觀察" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="333">
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,6 +1047,88 @@
   <si>
     <t>景美橋</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆河</t>
+  </si>
+  <si>
+    <t>台鐵(市民大道)</t>
+  </si>
+  <si>
+    <t>國1-市中心</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國南北路</t>
+  </si>
+  <si>
+    <t>臺北縣市東側運輸走廊</t>
+  </si>
+  <si>
+    <t>北市北側</t>
+  </si>
+  <si>
+    <t>臺北縣市西側運輸走廊(淡水河流域)</t>
+  </si>
+  <si>
+    <t>臺北縣市南側運輸走廊(新店溪&amp;景美溪流域)</t>
+  </si>
+  <si>
+    <t>大漢溪</t>
+  </si>
+  <si>
+    <t>臺北縣大重新地區</t>
+  </si>
+  <si>
+    <t>大海山地區</t>
+  </si>
+  <si>
+    <t>海山與文山地區(新店溪)</t>
+  </si>
+  <si>
+    <t>海山地區區內</t>
+  </si>
+  <si>
+    <t>CUBE南/東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUBE北/西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國北路(國一往北)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國北路(國一往南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山北路(慢車道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山北路(新生高架)匝道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建國南路匝道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦化南路(慢車道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL2</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,12 +1454,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,13 +1540,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,12 +1567,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,6 +1575,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1846,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1857,7 +1964,7 @@
     <col min="2" max="2" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +2010,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +2030,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +2050,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +2070,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +2090,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,7 +2113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +2133,7 @@
         <v>6326</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2045,8 +2152,10 @@
       <c r="H9">
         <v>6312</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2066,7 +2175,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2195,7 @@
         <v>10220</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2215,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2235,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2146,7 +2255,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2275,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2228,827 +2337,1381 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D19">
-        <v>5032</v>
+        <v>6443</v>
       </c>
       <c r="E19">
-        <v>5033</v>
+        <v>5300</v>
       </c>
       <c r="G19">
-        <v>5022</v>
+        <v>6440</v>
       </c>
       <c r="H19">
-        <v>5023</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>5018</v>
+        <v>6508</v>
       </c>
       <c r="E20">
-        <v>5019</v>
+        <v>6513</v>
       </c>
       <c r="G20">
-        <v>5027</v>
+        <v>6513</v>
       </c>
       <c r="H20">
-        <v>7040</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>7025</v>
+        <v>6412</v>
       </c>
       <c r="E21">
-        <v>7023</v>
+        <v>6509</v>
       </c>
       <c r="G21">
-        <v>7023</v>
+        <v>6509</v>
       </c>
       <c r="H21">
-        <v>7025</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="D22">
-        <v>7102</v>
+        <v>6438</v>
       </c>
       <c r="E22">
-        <v>16030</v>
+        <v>6418</v>
       </c>
       <c r="G22">
-        <v>16030</v>
+        <v>6418</v>
       </c>
       <c r="H22">
-        <v>7102</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>7102</v>
+        <v>7956</v>
       </c>
       <c r="E23">
-        <v>7096</v>
+        <v>7957</v>
       </c>
       <c r="G23">
-        <v>7096</v>
+        <v>7957</v>
       </c>
       <c r="H23">
-        <v>7102</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>16699</v>
+        <v>6448</v>
       </c>
       <c r="E24">
-        <v>16694</v>
+        <v>6420</v>
       </c>
       <c r="G24">
-        <v>16693</v>
+        <v>8375</v>
       </c>
       <c r="H24">
-        <v>16695</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="D25">
-        <v>5918</v>
+        <v>8371</v>
       </c>
       <c r="E25">
-        <v>5014</v>
+        <v>8376</v>
       </c>
       <c r="G25">
-        <v>5014</v>
+        <v>8374</v>
       </c>
       <c r="H25">
-        <v>5918</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8"/>
+        <v>115</v>
+      </c>
       <c r="D26">
-        <v>5869</v>
+        <v>9169</v>
       </c>
       <c r="E26">
-        <v>5872</v>
-      </c>
-      <c r="F26" s="12"/>
+        <v>9031</v>
+      </c>
       <c r="G26">
-        <v>5872</v>
+        <v>9031</v>
       </c>
       <c r="H26">
-        <v>5869</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>7452</v>
+        <v>6570</v>
       </c>
       <c r="E27">
-        <v>9283</v>
+        <v>6564</v>
       </c>
       <c r="G27">
-        <v>9283</v>
+        <v>6564</v>
       </c>
       <c r="H27">
-        <v>7452</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>7462</v>
+        <v>8432</v>
       </c>
       <c r="E28">
-        <v>5012</v>
+        <v>8434</v>
       </c>
       <c r="G28">
-        <v>5012</v>
+        <v>8429</v>
       </c>
       <c r="H28">
-        <v>7462</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>5865</v>
+        <v>6424</v>
       </c>
       <c r="E29">
-        <v>5871</v>
+        <v>8433</v>
       </c>
       <c r="G29">
-        <v>5871</v>
+        <v>8430</v>
       </c>
       <c r="H29">
-        <v>5865</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="D30">
-        <v>7536</v>
+        <v>8432</v>
       </c>
       <c r="E30">
-        <v>5268</v>
+        <v>8433</v>
       </c>
       <c r="G30">
-        <v>5268</v>
+        <v>8430</v>
       </c>
       <c r="H30">
-        <v>7536</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>7534</v>
+        <v>8450</v>
       </c>
       <c r="E31">
-        <v>6668</v>
+        <v>8453</v>
       </c>
       <c r="G31">
-        <v>6669</v>
+        <v>8452</v>
       </c>
       <c r="H31">
-        <v>5831</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D32">
-        <v>5336</v>
+        <v>6354</v>
       </c>
       <c r="E32">
-        <v>5337</v>
+        <v>6349</v>
       </c>
       <c r="G32">
-        <v>5334</v>
+        <v>6741</v>
       </c>
       <c r="H32">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="D33">
-        <v>5338</v>
+        <v>8535</v>
       </c>
       <c r="E33">
-        <v>5339</v>
+        <v>8536</v>
       </c>
       <c r="G33">
-        <v>5340</v>
+        <v>8533</v>
       </c>
       <c r="H33">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D34">
-        <v>7607</v>
+        <v>6356</v>
       </c>
       <c r="E34">
-        <v>7609</v>
+        <v>6347</v>
       </c>
       <c r="G34">
-        <v>7609</v>
+        <v>7963</v>
       </c>
       <c r="H34">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D35">
-        <v>8111</v>
+        <v>6745</v>
       </c>
       <c r="E35">
-        <v>6542</v>
+        <v>6744</v>
       </c>
       <c r="G35">
-        <v>6544</v>
+        <v>6744</v>
       </c>
       <c r="H35">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="D36">
-        <v>5797</v>
+        <v>6722</v>
       </c>
       <c r="E36">
-        <v>5295</v>
+        <v>6723</v>
       </c>
       <c r="G36">
-        <v>5295</v>
+        <v>6723</v>
       </c>
       <c r="H36">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="D37">
-        <v>5799</v>
+        <v>7771</v>
       </c>
       <c r="E37">
-        <v>6511</v>
+        <v>7769</v>
       </c>
       <c r="G37">
-        <v>6511</v>
+        <v>7770</v>
       </c>
       <c r="H37">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>7772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D38">
-        <v>5783</v>
+        <v>9246</v>
       </c>
       <c r="E38">
-        <v>5772</v>
+        <v>8932</v>
       </c>
       <c r="G38">
-        <v>5772</v>
+        <v>8932</v>
       </c>
       <c r="H38">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D39">
-        <v>16895</v>
+        <v>6781</v>
       </c>
       <c r="E39">
-        <v>8155</v>
+        <v>6776</v>
       </c>
       <c r="G39">
-        <v>8166</v>
+        <v>6776</v>
       </c>
       <c r="H39">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>6781</v>
+      </c>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>6168</v>
+        <v>15235</v>
       </c>
       <c r="E40">
-        <v>6137</v>
+        <v>6783</v>
       </c>
       <c r="G40">
-        <v>6137</v>
+        <v>6783</v>
       </c>
       <c r="H40">
-        <v>6168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>15235</v>
+      </c>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="D41">
-        <v>5742</v>
+        <v>8000</v>
       </c>
       <c r="E41">
-        <v>5741</v>
+        <v>7966</v>
       </c>
       <c r="G41">
-        <v>5741</v>
+        <v>6303</v>
       </c>
       <c r="H41">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>8214</v>
+        <v>6306</v>
       </c>
       <c r="E42">
-        <v>9466</v>
+        <v>8928</v>
       </c>
       <c r="G42">
-        <v>9466</v>
+        <v>8928</v>
       </c>
       <c r="H42">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D43">
-        <v>8253</v>
+        <v>27265</v>
       </c>
       <c r="E43">
-        <v>5452</v>
+        <v>8662</v>
       </c>
       <c r="G43">
-        <v>5452</v>
+        <v>8662</v>
       </c>
       <c r="H43">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="D44">
-        <v>8253</v>
+        <v>27267</v>
       </c>
       <c r="E44">
-        <v>8262</v>
+        <v>6932</v>
       </c>
       <c r="G44">
-        <v>8263</v>
+        <v>6932</v>
       </c>
       <c r="H44">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D45">
-        <v>8249</v>
+        <v>15828</v>
       </c>
       <c r="E45">
-        <v>9453</v>
+        <v>7028</v>
       </c>
       <c r="G45">
-        <v>9453</v>
+        <v>7028</v>
       </c>
       <c r="H45">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>15828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="D46">
-        <v>5472</v>
+        <v>6645</v>
       </c>
       <c r="E46">
-        <v>5443</v>
+        <v>6691</v>
       </c>
       <c r="G46">
-        <v>5443</v>
+        <v>6381</v>
       </c>
       <c r="H46">
-        <v>5472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="D47">
-        <v>5447</v>
+        <v>6324</v>
       </c>
       <c r="E47">
-        <v>5456</v>
+        <v>6382</v>
       </c>
       <c r="G47">
-        <v>5456</v>
+        <v>6384</v>
       </c>
       <c r="H47">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="D48">
-        <v>8228</v>
+        <v>5032</v>
       </c>
       <c r="E48">
-        <v>8226</v>
+        <v>5033</v>
       </c>
       <c r="G48">
-        <v>8227</v>
+        <v>5022</v>
       </c>
       <c r="H48">
-        <v>5445</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D49">
-        <v>6085</v>
+        <v>5018</v>
       </c>
       <c r="E49">
-        <v>9758</v>
+        <v>5019</v>
       </c>
       <c r="G49">
-        <v>9758</v>
+        <v>5027</v>
       </c>
       <c r="H49">
-        <v>6085</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D50">
-        <v>6104</v>
+        <v>7025</v>
       </c>
       <c r="E50">
-        <v>27340</v>
+        <v>7023</v>
       </c>
       <c r="G50">
-        <v>27340</v>
+        <v>7023</v>
       </c>
       <c r="H50">
-        <v>6104</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="D51">
-        <v>6096</v>
+        <v>7102</v>
       </c>
       <c r="E51">
-        <v>9804</v>
+        <v>16030</v>
       </c>
       <c r="G51">
-        <v>9804</v>
+        <v>16030</v>
       </c>
       <c r="H51">
-        <v>6096</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>307</v>
+        <v>198</v>
       </c>
       <c r="D52">
-        <v>6009</v>
+        <v>7102</v>
       </c>
       <c r="E52">
-        <v>9832</v>
+        <v>7096</v>
       </c>
       <c r="G52">
-        <v>9835</v>
+        <v>7096</v>
       </c>
       <c r="H52">
-        <v>6010</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D53">
-        <v>6015</v>
+        <v>16699</v>
       </c>
       <c r="E53">
-        <v>9829</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
+        <v>16694</v>
       </c>
       <c r="G53">
-        <v>9827</v>
+        <v>16693</v>
       </c>
       <c r="H53">
-        <v>6006</v>
+        <v>16695</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D54">
-        <v>6180</v>
+        <v>5918</v>
       </c>
       <c r="E54">
-        <v>7697</v>
+        <v>5014</v>
       </c>
       <c r="G54">
-        <v>7697</v>
+        <v>5014</v>
       </c>
       <c r="H54">
-        <v>6180</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55">
-        <v>6001</v>
+        <v>5869</v>
       </c>
       <c r="E55">
-        <v>7699</v>
-      </c>
+        <v>5872</v>
+      </c>
+      <c r="F55" s="10"/>
       <c r="G55">
-        <v>7699</v>
+        <v>5872</v>
       </c>
       <c r="H55">
-        <v>6001</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>6175</v>
+        <v>7452</v>
       </c>
       <c r="E56">
-        <v>6174</v>
+        <v>9283</v>
       </c>
       <c r="G56">
-        <v>6174</v>
+        <v>9283</v>
       </c>
       <c r="H56">
-        <v>6175</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>7462</v>
+      </c>
+      <c r="E57">
+        <v>5012</v>
+      </c>
+      <c r="G57">
+        <v>5012</v>
+      </c>
+      <c r="H57">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>5865</v>
+      </c>
+      <c r="E58">
+        <v>5871</v>
+      </c>
+      <c r="G58">
+        <v>5871</v>
+      </c>
+      <c r="H58">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>7536</v>
+      </c>
+      <c r="E59">
+        <v>5268</v>
+      </c>
+      <c r="G59">
+        <v>5268</v>
+      </c>
+      <c r="H59">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>7534</v>
+      </c>
+      <c r="E60">
+        <v>6668</v>
+      </c>
+      <c r="G60">
+        <v>6669</v>
+      </c>
+      <c r="H60">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>5336</v>
+      </c>
+      <c r="E61">
+        <v>5337</v>
+      </c>
+      <c r="G61">
+        <v>5334</v>
+      </c>
+      <c r="H61">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>5338</v>
+      </c>
+      <c r="E62">
+        <v>5339</v>
+      </c>
+      <c r="G62">
+        <v>5340</v>
+      </c>
+      <c r="H62">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63">
+        <v>7607</v>
+      </c>
+      <c r="E63">
+        <v>7609</v>
+      </c>
+      <c r="G63">
+        <v>7609</v>
+      </c>
+      <c r="H63">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>8111</v>
+      </c>
+      <c r="E64">
+        <v>6542</v>
+      </c>
+      <c r="G64">
+        <v>6544</v>
+      </c>
+      <c r="H64">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>5797</v>
+      </c>
+      <c r="E65">
+        <v>5295</v>
+      </c>
+      <c r="G65">
+        <v>5295</v>
+      </c>
+      <c r="H65">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>5799</v>
+      </c>
+      <c r="E66">
+        <v>6511</v>
+      </c>
+      <c r="G66">
+        <v>6511</v>
+      </c>
+      <c r="H66">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>5783</v>
+      </c>
+      <c r="E67">
+        <v>5772</v>
+      </c>
+      <c r="G67">
+        <v>5772</v>
+      </c>
+      <c r="H67">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>16895</v>
+      </c>
+      <c r="E68">
+        <v>8155</v>
+      </c>
+      <c r="G68">
+        <v>8166</v>
+      </c>
+      <c r="H68">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69">
+        <v>6168</v>
+      </c>
+      <c r="E69">
+        <v>6137</v>
+      </c>
+      <c r="G69">
+        <v>6137</v>
+      </c>
+      <c r="H69">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70">
+        <v>5742</v>
+      </c>
+      <c r="E70">
+        <v>5741</v>
+      </c>
+      <c r="G70">
+        <v>5741</v>
+      </c>
+      <c r="H70">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71">
+        <v>8214</v>
+      </c>
+      <c r="E71">
+        <v>9466</v>
+      </c>
+      <c r="G71">
+        <v>9466</v>
+      </c>
+      <c r="H71">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72">
+        <v>8253</v>
+      </c>
+      <c r="E72">
+        <v>5452</v>
+      </c>
+      <c r="G72">
+        <v>5452</v>
+      </c>
+      <c r="H72">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D73">
+        <v>8253</v>
+      </c>
+      <c r="E73">
+        <v>8262</v>
+      </c>
+      <c r="G73">
+        <v>8263</v>
+      </c>
+      <c r="H73">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74">
+        <v>8249</v>
+      </c>
+      <c r="E74">
+        <v>9453</v>
+      </c>
+      <c r="G74">
+        <v>9453</v>
+      </c>
+      <c r="H74">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75">
+        <v>5472</v>
+      </c>
+      <c r="E75">
+        <v>5443</v>
+      </c>
+      <c r="G75">
+        <v>5443</v>
+      </c>
+      <c r="H75">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76">
+        <v>5447</v>
+      </c>
+      <c r="E76">
+        <v>5456</v>
+      </c>
+      <c r="G76">
+        <v>5456</v>
+      </c>
+      <c r="H76">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77">
+        <v>8228</v>
+      </c>
+      <c r="E77">
+        <v>8226</v>
+      </c>
+      <c r="G77">
+        <v>8227</v>
+      </c>
+      <c r="H77">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78">
+        <v>6085</v>
+      </c>
+      <c r="E78">
+        <v>9758</v>
+      </c>
+      <c r="G78">
+        <v>9758</v>
+      </c>
+      <c r="H78">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79">
+        <v>6104</v>
+      </c>
+      <c r="E79">
+        <v>27340</v>
+      </c>
+      <c r="G79">
+        <v>27340</v>
+      </c>
+      <c r="H79">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80">
+        <v>6096</v>
+      </c>
+      <c r="E80">
+        <v>9804</v>
+      </c>
+      <c r="G80">
+        <v>9804</v>
+      </c>
+      <c r="H80">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81">
+        <v>6009</v>
+      </c>
+      <c r="E81">
+        <v>9832</v>
+      </c>
+      <c r="G81">
+        <v>9835</v>
+      </c>
+      <c r="H81">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82">
+        <v>6015</v>
+      </c>
+      <c r="E82">
+        <v>9829</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82">
+        <v>9827</v>
+      </c>
+      <c r="H82">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83">
+        <v>6180</v>
+      </c>
+      <c r="E83">
+        <v>7697</v>
+      </c>
+      <c r="G83">
+        <v>7697</v>
+      </c>
+      <c r="H83">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84">
+        <v>6001</v>
+      </c>
+      <c r="E84">
+        <v>7699</v>
+      </c>
+      <c r="G84">
+        <v>7699</v>
+      </c>
+      <c r="H84">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85">
+        <v>6175</v>
+      </c>
+      <c r="E85">
+        <v>6174</v>
+      </c>
+      <c r="G85">
+        <v>6174</v>
+      </c>
+      <c r="H85">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D57">
+      <c r="D86">
         <v>6146</v>
       </c>
-      <c r="E57">
+      <c r="E86">
         <v>16133</v>
       </c>
-      <c r="G57">
+      <c r="G86">
         <v>16133</v>
       </c>
-      <c r="H57">
+      <c r="H86">
         <v>6146</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3057,168 +3720,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226F8A70-0562-4635-9D6B-BED2F05B1039}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0181EA-A226-49EB-8E28-110DF53E79A2}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="E1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7">
         <v>42683.392647563029</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="8">
         <v>42361.739519105482</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="E2">
+        <v>46390.455000000002</v>
+      </c>
+      <c r="F2">
+        <v>42261.995000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="8">
         <v>29822.770682142334</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="8">
         <v>38481.345448635933</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="E3">
+        <v>34108.195</v>
+      </c>
+      <c r="F3">
+        <v>37853.305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="8">
         <v>6161.91</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="8">
         <v>5398.893</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="E4">
+        <v>5068.9449999999997</v>
+      </c>
+      <c r="F4">
+        <v>4679.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="8">
         <v>31830.447035011635</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="8">
         <v>25750.415741676497</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="E5">
+        <v>30339.095000000001</v>
+      </c>
+      <c r="F5">
+        <v>23681.424999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="8">
         <v>9046.0159999999996</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="8">
         <v>18011.210000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="E6">
+        <v>7492.9000000000005</v>
+      </c>
+      <c r="F6">
+        <v>14479.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="8">
         <v>5586.17926056338</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D7" s="8">
         <v>3777.4891558441559</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="E7">
+        <v>5664.4049999999997</v>
+      </c>
+      <c r="F7">
+        <v>3371.0150000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="8">
         <v>39666.11</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="8">
         <v>23632.623500000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="E8">
+        <v>40286.86</v>
+      </c>
+      <c r="F8">
+        <v>25851.360000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="8">
         <v>26002.76</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="8">
         <v>41385.249999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="E9">
+        <v>26395.399999999998</v>
+      </c>
+      <c r="F9">
+        <v>37153.885000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="8">
         <v>17036.149999999998</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="8">
         <v>16205.199999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="E10">
+        <v>19066.805</v>
+      </c>
+      <c r="F10">
+        <v>18439.849999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="8">
         <v>23422.538</v>
       </c>
-      <c r="C11" s="10">
+      <c r="D11" s="8">
         <v>22236.972206355833</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="E11">
+        <v>21544.16</v>
+      </c>
+      <c r="F11">
+        <v>20743.954999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="8">
         <v>22780.917875649262</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="8">
         <v>22987.046838345865</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="E12">
+        <v>20684.810000000001</v>
+      </c>
+      <c r="F12">
+        <v>20949.785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="8">
         <v>15450.310000000001</v>
       </c>
-      <c r="C13" s="10">
+      <c r="D13" s="8">
         <v>14407.800000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="E13">
+        <v>13419.27</v>
+      </c>
+      <c r="F13">
+        <v>15222.730000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="8">
         <v>14876.543412322393</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D14" s="8">
         <v>12603.602190887545</v>
       </c>
+      <c r="E14">
+        <v>12740.73</v>
+      </c>
+      <c r="F14">
+        <v>12737.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="49"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3228,78 +4042,763 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226F8A70-0562-4635-9D6B-BED2F05B1039}">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="8">
+        <v>37315.346246911424</v>
+      </c>
+      <c r="D2" s="8">
+        <v>32440.937323831553</v>
+      </c>
+      <c r="E2">
+        <v>35669.174999999996</v>
+      </c>
+      <c r="F2">
+        <v>31700.909999999996</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3">
+        <v>33287.783846140715</v>
+      </c>
+      <c r="D3">
+        <v>31789.9661413664</v>
+      </c>
+      <c r="E3">
+        <v>35863.954999999994</v>
+      </c>
+      <c r="F3">
+        <v>33067.789999999994</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5297.3864999999996</v>
+      </c>
+      <c r="D4">
+        <v>5488.8423999999995</v>
+      </c>
+      <c r="E4">
+        <v>5300.3450000000003</v>
+      </c>
+      <c r="F4">
+        <v>4411.42</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="8">
+        <v>30549.900560001148</v>
+      </c>
+      <c r="D5">
+        <v>34711.234402729868</v>
+      </c>
+      <c r="E5">
+        <v>26035.84</v>
+      </c>
+      <c r="F5">
+        <v>33585.645000000004</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15300.374958325054</v>
+      </c>
+      <c r="D6">
+        <v>11238.289342105265</v>
+      </c>
+      <c r="E6">
+        <v>12522.765000000001</v>
+      </c>
+      <c r="F6">
+        <v>9174.02</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4126.4709999999995</v>
+      </c>
+      <c r="D7">
+        <v>5522.35</v>
+      </c>
+      <c r="E7">
+        <v>3881.6599999999994</v>
+      </c>
+      <c r="F7">
+        <v>6022.2249999999995</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="8">
+        <v>25242</v>
+      </c>
+      <c r="D8">
+        <v>30268.34</v>
+      </c>
+      <c r="E8">
+        <v>27827.075000000001</v>
+      </c>
+      <c r="F8">
+        <v>33242.775000000001</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="8">
+        <v>32182.880000000001</v>
+      </c>
+      <c r="D9">
+        <v>24891.579999999998</v>
+      </c>
+      <c r="E9">
+        <v>35949.919999999998</v>
+      </c>
+      <c r="F9">
+        <v>25381.729999999996</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="8">
+        <v>15384.899256933662</v>
+      </c>
+      <c r="D10">
+        <v>16914.375</v>
+      </c>
+      <c r="E10">
+        <v>15875.21</v>
+      </c>
+      <c r="F10">
+        <v>19867.66</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="8">
+        <v>21442.996379437598</v>
+      </c>
+      <c r="D11">
+        <v>19088.474184430983</v>
+      </c>
+      <c r="E11">
+        <v>18483.885000000002</v>
+      </c>
+      <c r="F11">
+        <v>18677.57</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="8">
+        <v>19725.106866824048</v>
+      </c>
+      <c r="D12">
+        <v>18896.969593238777</v>
+      </c>
+      <c r="E12">
+        <v>18454.97</v>
+      </c>
+      <c r="F12">
+        <v>18128.565000000002</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12182.752199999999</v>
+      </c>
+      <c r="D13">
+        <v>13146.49</v>
+      </c>
+      <c r="E13">
+        <v>13396.480000000001</v>
+      </c>
+      <c r="F13">
+        <v>11400.324999999999</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12044.831852441539</v>
+      </c>
+      <c r="D14">
+        <v>11615.269943990766</v>
+      </c>
+      <c r="E14">
+        <v>10687.725</v>
+      </c>
+      <c r="F14">
+        <v>11086.87</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="9:20">
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+    </row>
+    <row r="18" spans="9:20">
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="9:20">
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="9:20">
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+    </row>
+    <row r="21" spans="9:20">
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="9:20">
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="9:20">
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="9:20">
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="9:20">
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="9:20">
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" spans="9:20">
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="9:20">
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9320DA-452C-4767-B135-0406F64965CB}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="15" customWidth="1"/>
-    <col min="3" max="4" width="9.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="15" customWidth="1"/>
-    <col min="7" max="10" width="9.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="15"/>
-    <col min="14" max="14" width="11.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" style="29" customWidth="1"/>
-    <col min="16" max="17" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="6.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="39.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="13" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="13" customWidth="1"/>
+    <col min="7" max="10" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="13"/>
+    <col min="14" max="14" width="11.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" style="27" customWidth="1"/>
+    <col min="16" max="17" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="45" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3308,36 +4807,36 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>74</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3348,41 +4847,41 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>15629.46</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>62273.98509769197</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>6820.0339405190089</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>84723.479038210964</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <f>F4/2</f>
         <v>42361.739519105482</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>18244.96</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>58520.68</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>7758.35</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>84523.99</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <f>K4/2</f>
         <v>42261.995000000003</v>
       </c>
@@ -3394,39 +4893,39 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>17925.904066797644</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>61017.392535421444</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>6423.4886929069689</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>85366.785295126057</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f t="shared" ref="G5:G29" si="0">F5/2</f>
         <v>42683.392647563029</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>21286.52</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>65417.29</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>6077.1</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>92780.91</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <f t="shared" ref="L5:L29" si="1">K5/2</f>
         <v>46390.455000000002</v>
       </c>
@@ -3438,41 +4937,41 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>20862.022879951986</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>51515.961064577001</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>4584.7069527428885</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>76962.690897271867</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>38481.345448635933</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>19138.59</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>52450.100000000006</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>4117.92</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>75706.61</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <f t="shared" si="1"/>
         <v>37853.305</v>
       </c>
@@ -3484,39 +4983,39 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>10369.288682133989</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>45507.425115502927</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>3768.8275666477593</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>59645.541364284669</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>29822.770682142334</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>11675.45</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>51954.18</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>4586.7599999999993</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>68216.39</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <f t="shared" si="1"/>
         <v>34108.195</v>
       </c>
@@ -3528,41 +5027,41 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>237.846</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>9520.98</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>1038.96</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>10797.786</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <f t="shared" si="0"/>
         <v>5398.893</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>204.19</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>8236.39</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>917.56000000000006</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>9358.14</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <f t="shared" si="1"/>
         <v>4679.07</v>
       </c>
@@ -3574,39 +5073,39 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>308.07</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>11109</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>906.75</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>12323.82</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>6161.91</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>258.51</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>8878.74</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>1000.6400000000001</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>10137.89</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
         <v>5068.9449999999997</v>
       </c>
@@ -3618,41 +5117,41 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>12778.845282156437</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>35624.071302767239</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>3097.9148984293192</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>51500.831483352995</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>25750.415741676497</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>10715.63</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>33550.550000000003</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>3096.67</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>47362.85</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
         <v>23681.424999999999</v>
       </c>
@@ -3664,39 +5163,39 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>19794.333999999999</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>40512.440070023265</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>3354.12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>63660.894070023271</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>31830.447035011635</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>17830.45</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>38270.910000000003</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>4576.83</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <v>60678.19</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f t="shared" si="1"/>
         <v>30339.095000000001</v>
       </c>
@@ -3708,41 +5207,41 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>2717.4</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>28850.300000000003</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>4454.72</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>36022.420000000006</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>18011.210000000003</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>2588.58</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>23235.699999999997</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>3135.18</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <v>28959.46</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f t="shared" si="1"/>
         <v>14479.73</v>
       </c>
@@ -3754,39 +5253,39 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>1097.2920000000001</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>14274.8</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>2719.9400000000005</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>18092.031999999999</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>9046.0159999999996</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>966.19</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>12307.42</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>1712.19</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <v>14985.800000000001</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <f t="shared" si="1"/>
         <v>7492.9000000000005</v>
       </c>
@@ -3798,41 +5297,41 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>1614.69</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>5180.6883116883118</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>759.59999999999991</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>7554.9783116883118</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>3777.4891558441559</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>1315.31</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>4480.3700000000008</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>946.35</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <v>6742.0300000000007</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <f t="shared" si="1"/>
         <v>3371.0150000000003</v>
       </c>
@@ -3844,39 +5343,39 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>3893.5049999999997</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>6436.4535211267603</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>842.40000000000009</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>11172.35852112676</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>5586.17926056338</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>4321.42</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>6324</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>683.39</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>11328.81</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f t="shared" si="1"/>
         <v>5664.4049999999997</v>
       </c>
@@ -3888,41 +5387,41 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>7751.2469999999994</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>31541</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>7973.0000000000009</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>47265.247000000003</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>23632.623500000002</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>9293.4500000000007</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>33932.25</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>8477.02</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <v>51702.720000000001</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <f t="shared" si="1"/>
         <v>25851.360000000001</v>
       </c>
@@ -3934,39 +5433,39 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>25696.02</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>45050</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>8586.2000000000007</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>79332.22</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>39666.11</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>24618.69</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>47544.29</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>8410.74</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>80573.72</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="20">
         <f t="shared" si="1"/>
         <v>40286.86</v>
       </c>
@@ -3978,41 +5477,41 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>29343.299999999996</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>48561</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>4866.2000000000016</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>82770.499999999985</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <f t="shared" si="0"/>
         <v>41385.249999999993</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>28195.919999999998</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>41979.24</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="19">
         <v>4132.6099999999997</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="19">
         <v>74307.77</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <f t="shared" si="1"/>
         <v>37153.885000000002</v>
       </c>
@@ -4024,39 +5523,39 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>12388.32</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>35623</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>3994.2</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>52005.52</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
         <v>26002.76</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="19">
         <v>12726.61</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>36008.199999999997</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <v>4055.99</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="19">
         <v>52790.799999999996</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <f t="shared" si="1"/>
         <v>26395.399999999998</v>
       </c>
@@ -4068,41 +5567,41 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>16513.349999999999</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>13820.75</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>2076.3000000000002</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>32410.399999999998</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <f t="shared" si="0"/>
         <v>16205.199999999999</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="19">
         <v>18992.97</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>14994.95</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>2891.7799999999997</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="19">
         <v>36879.699999999997</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
         <v>18439.849999999999</v>
       </c>
@@ -4114,39 +5613,39 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>14576.1</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>17878</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>1618.2000000000003</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>34072.299999999996</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <f t="shared" si="0"/>
         <v>17036.149999999998</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <v>17209.18</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>18895.62</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>2028.81</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="19">
         <v>38133.61</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <f t="shared" si="1"/>
         <v>19066.805</v>
       </c>
@@ -4158,41 +5657,41 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>6813.4919999999993</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>30351.112790070158</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>7309.3396226415089</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>44473.944412711666</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <f t="shared" si="0"/>
         <v>22236.972206355833</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>7565.54</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>25409.77</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>8512.6</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="19">
         <v>41487.909999999996</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <f t="shared" si="1"/>
         <v>20743.954999999998</v>
       </c>
@@ -4204,39 +5703,39 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>6071.4359999999997</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>31367.199999999997</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>9406.44</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>46845.076000000001</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <f t="shared" si="0"/>
         <v>23422.538</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <v>6818.95</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>25304.76</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <v>10964.61</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="19">
         <v>43088.32</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="20">
         <f t="shared" si="1"/>
         <v>21544.16</v>
       </c>
@@ -4248,41 +5747,41 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>15249.948</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>25353.145676691733</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>5371</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>45974.093676691729</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="20">
         <f t="shared" si="0"/>
         <v>22987.046838345865</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <v>13378.64</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <v>23452.639999999999</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>5068.29</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="19">
         <v>41899.57</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <f t="shared" si="1"/>
         <v>20949.785</v>
       </c>
@@ -4294,39 +5793,39 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>10851.327324840764</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>28996.95422535211</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>5713.5542011056532</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>45561.835751298524</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="20">
         <f t="shared" si="0"/>
         <v>22780.917875649262</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <v>11410.91</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>25157.41</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>4801.3</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="19">
         <v>41369.620000000003</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="20">
         <f t="shared" si="1"/>
         <v>20684.810000000001</v>
       </c>
@@ -4338,41 +5837,41 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>3261.3999999999996</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>20462</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>5092.2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>28815.600000000002</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="20">
         <f t="shared" si="0"/>
         <v>14407.800000000001</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>3536.91</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>20163.930000000004</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <v>6744.62</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <v>30445.460000000003</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="20">
         <f t="shared" si="1"/>
         <v>15222.730000000001</v>
       </c>
@@ -4384,39 +5883,39 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>7468.16</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>20384.7</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>3047.76</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>30900.620000000003</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="20">
         <f t="shared" si="0"/>
         <v>15450.310000000001</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>7223.92</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>16751.22</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="19">
         <v>2863.3999999999996</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="19">
         <v>26838.54</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="20">
         <f t="shared" si="1"/>
         <v>13419.27</v>
       </c>
@@ -4428,41 +5927,41 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>9973.7640764331227</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>12079.75086434818</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>3153.6894409937895</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>25207.204381775089</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="20">
         <f t="shared" si="0"/>
         <v>12603.602190887545</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>10232.33</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <v>12336.92</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>2906.03</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <v>25475.279999999999</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="20">
         <f t="shared" si="1"/>
         <v>12737.64</v>
       </c>
@@ -4474,39 +5973,39 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>15262.695000000002</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="23">
         <v>12165.777802149594</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>2324.6140224951901</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="23">
         <v>29753.086824644786</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>14876.543412322393</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="23">
         <v>12428.75</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="23">
         <v>10970.68</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="23">
         <v>2082.0299999999997</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="23">
         <v>25481.46</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="24">
         <f t="shared" si="1"/>
         <v>12740.73</v>
       </c>
@@ -4526,20 +6025,20 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -4548,26 +6047,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="40" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -4576,36 +6075,36 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="29" t="s">
         <v>74</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -4616,41 +6115,41 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>13837.49517818182</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>45262.554469481285</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>5781.8249999999998</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>64881.874647663106</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="20">
         <f>F34/2</f>
         <v>32440.937323831553</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>13994.88</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <v>42767.7</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <v>6639.24</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <v>63401.819999999992</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="20">
         <f>K34/2</f>
         <v>31700.909999999996</v>
       </c>
@@ -4662,39 +6161,39 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>13536.419506849315</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>54969.602654237358</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>6124.6703327361784</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>74630.692493822848</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="20">
         <f t="shared" ref="G35:G59" si="2">F35/2</f>
         <v>37315.346246911424</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="19">
         <v>16135.09</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <v>50295.199999999997</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <v>4908.0599999999995</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="19">
         <v>71338.349999999991</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="20">
         <f t="shared" ref="L35:L59" si="3">K35/2</f>
         <v>35669.174999999996</v>
       </c>
@@ -4706,41 +6205,41 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>13750.648791640057</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>45526.364774515197</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>4302.9187165775402</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>63579.9322827328</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="20">
         <f t="shared" si="2"/>
         <v>31789.9661413664</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>12362.3</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <v>49748.24</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <v>4025.04</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="19">
         <v>66135.579999999987</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="20">
         <f t="shared" si="3"/>
         <v>33067.789999999994</v>
       </c>
@@ -4752,39 +6251,39 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>15137.093542195369</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>47008.419248543039</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>4430.0549015430261</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>66575.567692281431</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="20">
         <f t="shared" si="2"/>
         <v>33287.783846140715</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="19">
         <v>16425.78</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="19">
         <v>50756.899999999994</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="19">
         <v>4545.2299999999996</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="19">
         <v>71727.909999999989</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="20">
         <f t="shared" si="3"/>
         <v>35863.954999999994</v>
       </c>
@@ -4796,41 +6295,41 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>190.8648</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>10026.5</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>760.31999999999994</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="19">
         <v>10977.684799999999</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="20">
         <f t="shared" si="2"/>
         <v>5488.8423999999995</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <v>172.05</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>7984.53</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="19">
         <v>666.26</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <v>8822.84</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="20">
         <f t="shared" si="3"/>
         <v>4411.42</v>
       </c>
@@ -4842,39 +6341,39 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>216.15299999999996</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>9662.4</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>716.21999999999991</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="19">
         <v>10594.772999999999</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="20">
         <f t="shared" si="2"/>
         <v>5297.3864999999996</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="19">
         <v>251.29</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <v>9747.41</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="19">
         <v>601.99</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="19">
         <v>10600.69</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="20">
         <f t="shared" si="3"/>
         <v>5300.3450000000003</v>
       </c>
@@ -4886,41 +6385,41 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>22219.512000000002</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="19">
         <v>43552.556805459739</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <v>3650.3999999999996</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <v>69422.468805459735</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="20">
         <f t="shared" si="2"/>
         <v>34711.234402729868</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="19">
         <v>18057.45</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="19">
         <v>45453.82</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="19">
         <v>3660.0200000000004</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="19">
         <v>67171.290000000008</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="20">
         <f t="shared" si="3"/>
         <v>33585.645000000004</v>
       </c>
@@ -4932,39 +6431,39 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>13143.202799999997</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>45141.935982339957</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>2814.6623376623374</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="19">
         <v>61099.801120002296</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="20">
         <f t="shared" si="2"/>
         <v>30549.900560001148</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="19">
         <v>12656.76</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="19">
         <v>36359.61</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="19">
         <v>3055.31</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="19">
         <v>52071.68</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="20">
         <f t="shared" si="3"/>
         <v>26035.84</v>
       </c>
@@ -4976,41 +6475,41 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>1424.64</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <v>17925.200000000004</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>3126.7386842105261</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="19">
         <v>22476.57868421053</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="20">
         <f t="shared" si="2"/>
         <v>11238.289342105265</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="19">
         <v>1684.88</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="19">
         <v>14626.16</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="19">
         <v>2037</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="19">
         <v>18348.04</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="20">
         <f t="shared" si="3"/>
         <v>9174.02</v>
       </c>
@@ -5022,39 +6521,39 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>2065.3907072187612</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <v>24995.319209431345</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>3540.04</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <v>30600.749916650107</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="20">
         <f t="shared" si="2"/>
         <v>15300.374958325054</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="19">
         <v>1953.71</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="19">
         <v>20757.390000000003</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="19">
         <v>2334.4300000000003</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="19">
         <v>25045.530000000002</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="20">
         <f t="shared" si="3"/>
         <v>12522.765000000001</v>
       </c>
@@ -5066,41 +6565,41 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>4210.92</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>6281</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>552.78</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>11044.7</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="20">
         <f t="shared" si="2"/>
         <v>5522.35</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <v>4941.7299999999996</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="19">
         <v>6424.39</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="19">
         <v>678.33</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="19">
         <v>12044.449999999999</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="20">
         <f t="shared" si="3"/>
         <v>6022.2249999999995</v>
       </c>
@@ -5112,39 +6611,39 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="32"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>2296.3919999999998</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <v>5402.15</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
         <v>554.4</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="19">
         <v>8252.9419999999991</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="20">
         <f t="shared" si="2"/>
         <v>4126.4709999999995</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="19">
         <v>2646.56</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="19">
         <v>4438.6499999999996</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="19">
         <v>678.11</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="19">
         <v>7763.3199999999988</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="20">
         <f t="shared" si="3"/>
         <v>3881.6599999999994</v>
       </c>
@@ -5156,41 +6655,41 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>18208.68</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="19">
         <v>37158</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>5170</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>60536.68</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="20">
         <f t="shared" si="2"/>
         <v>30268.34</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <v>18641.57</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="19">
         <v>41130.270000000004</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="19">
         <v>6713.7100000000009</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="19">
         <v>66485.55</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="20">
         <f t="shared" si="3"/>
         <v>33242.775000000001</v>
       </c>
@@ -5202,39 +6701,39 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>10428.6</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="19">
         <v>34679</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>5376.3999999999987</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="19">
         <v>50484</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="20">
         <f t="shared" si="2"/>
         <v>25242</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="19">
         <v>10653.5</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="19">
         <v>38626.870000000003</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="19">
         <v>6373.7800000000007</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="19">
         <v>55654.15</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="20">
         <f t="shared" si="3"/>
         <v>27827.075000000001</v>
       </c>
@@ -5246,41 +6745,41 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>14224.56</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="19">
         <v>32755</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
         <v>2803.5999999999995</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="19">
         <v>49783.159999999996</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="20">
         <f t="shared" si="2"/>
         <v>24891.579999999998</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="19">
         <v>15365.99</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="19">
         <v>31877.879999999997</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="19">
         <v>3519.59</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="19">
         <v>50763.459999999992</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="20">
         <f t="shared" si="3"/>
         <v>25381.729999999996</v>
       </c>
@@ -5292,39 +6791,39 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>20881.560000000005</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="19">
         <v>40770</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <v>2714.1999999999994</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>64365.760000000002</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="20">
         <f t="shared" si="2"/>
         <v>32182.880000000001</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="19">
         <v>22442.11</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="19">
         <v>47004.080000000009</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="19">
         <v>2453.65</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="19">
         <v>71899.839999999997</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="20">
         <f t="shared" si="3"/>
         <v>35949.919999999998</v>
       </c>
@@ -5336,41 +6835,41 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>13732.949999999999</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <v>18619.8</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <v>1476</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="19">
         <v>33828.75</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="20">
         <f t="shared" si="2"/>
         <v>16914.375</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="19">
         <v>16092.94</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="19">
         <v>21616.99</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="19">
         <v>2025.3899999999999</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <v>39735.32</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="20">
         <f t="shared" si="3"/>
         <v>19867.66</v>
       </c>
@@ -5382,39 +6881,39 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>14062.277357373519</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>14758.121156493804</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
         <v>1949.3999999999999</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="19">
         <v>30769.798513867325</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="20">
         <f t="shared" si="2"/>
         <v>15384.899256933662</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="19">
         <v>14825.25</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="19">
         <v>14798.349999999999</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="19">
         <v>2126.8200000000002</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="19">
         <v>31750.42</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="20">
         <f t="shared" si="3"/>
         <v>15875.21</v>
       </c>
@@ -5426,41 +6925,41 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>5400.2734936539746</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="19">
         <v>26539.074875207989</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>6237.6</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>38176.948368861966</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="20">
         <f t="shared" si="2"/>
         <v>19088.474184430983</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="19">
         <v>6333.05</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="19">
         <v>24936.980000000003</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="19">
         <v>6085.11</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="19">
         <v>37355.14</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="20">
         <f t="shared" si="3"/>
         <v>18677.57</v>
       </c>
@@ -5472,39 +6971,39 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="32"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>6992.2393700787397</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>29053.633388796454</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>6840.1200000000008</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="19">
         <v>42885.992758875196</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="20">
         <f t="shared" si="2"/>
         <v>21442.996379437598</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="19">
         <v>5908.56</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="19">
         <v>23523.980000000003</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="19">
         <v>7535.23</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="19">
         <v>36967.770000000004</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="20">
         <f t="shared" si="3"/>
         <v>18483.885000000002</v>
       </c>
@@ -5516,41 +7015,41 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>8942.9761213434449</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>25067.203065134105</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>3783.76</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <v>37793.939186477553</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="20">
         <f t="shared" si="2"/>
         <v>18896.969593238777</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="19">
         <v>9160.85</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="19">
         <v>23681.800000000003</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="19">
         <v>3414.48</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="19">
         <v>36257.130000000005</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="20">
         <f t="shared" si="3"/>
         <v>18128.565000000002</v>
       </c>
@@ -5562,39 +7061,39 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>13644.405049180326</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>21663.503421309873</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>4142.3052631578958</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>39450.213733648096</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="20">
         <f t="shared" si="2"/>
         <v>19725.106866824048</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="19">
         <v>11215.54</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="19">
         <v>22410.010000000002</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="19">
         <v>3284.3900000000003</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="19">
         <v>36909.94</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="20">
         <f t="shared" si="3"/>
         <v>18454.97</v>
       </c>
@@ -5606,41 +7105,41 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>4825.3799999999992</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="19">
         <v>18684.8</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>2782.7999999999997</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>26292.98</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="20">
         <f t="shared" si="2"/>
         <v>13146.49</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="19">
         <v>3923.36</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="19">
         <v>15046.67</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="19">
         <v>3830.62</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="19">
         <v>22800.649999999998</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="20">
         <f t="shared" si="3"/>
         <v>11400.324999999999</v>
       </c>
@@ -5652,39 +7151,39 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>3258.7043999999996</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="19">
         <v>18968</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <v>2138.8000000000002</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="19">
         <v>24365.504399999998</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="20">
         <f t="shared" si="2"/>
         <v>12182.752199999999</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="19">
         <v>3519.43</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="19">
         <v>20950.580000000002</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="19">
         <v>2322.9499999999998</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="19">
         <v>26792.960000000003</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="20">
         <f t="shared" si="3"/>
         <v>13396.480000000001</v>
       </c>
@@ -5696,41 +7195,41 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>10461.500761012183</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="19">
         <v>10970.329174664106</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>1798.7099523052468</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>23230.539887981533</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="20">
         <f t="shared" si="2"/>
         <v>11615.269943990766</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="19">
         <v>11284.73</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="19">
         <v>9602.2100000000009</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="19">
         <v>1286.8</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="19">
         <v>22173.74</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58" s="20">
         <f t="shared" si="3"/>
         <v>11086.87</v>
       </c>
@@ -5742,39 +7241,39 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <v>10335.352614861033</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="23">
         <v>11650.606742195958</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>2103.7043478260871</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="23">
         <v>24089.663704883078</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="24">
         <f t="shared" si="2"/>
         <v>12044.831852441539</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="23">
         <v>8549.17</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="23">
         <v>11269.619999999999</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="23">
         <v>1556.6599999999999</v>
       </c>
-      <c r="K59" s="25">
+      <c r="K59" s="23">
         <v>21375.45</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="24">
         <f t="shared" si="3"/>
         <v>10687.725</v>
       </c>
@@ -6234,334 +7733,358 @@
       </c>
     </row>
     <row r="118" spans="14:15">
-      <c r="N118" s="29"/>
+      <c r="N118" s="27"/>
     </row>
     <row r="119" spans="14:15">
-      <c r="N119" s="29"/>
+      <c r="N119" s="27"/>
     </row>
     <row r="120" spans="14:15">
-      <c r="N120" s="29"/>
+      <c r="N120" s="27"/>
     </row>
     <row r="121" spans="14:15">
-      <c r="N121" s="29"/>
+      <c r="N121" s="27"/>
     </row>
     <row r="122" spans="14:15">
-      <c r="N122" s="29"/>
+      <c r="N122" s="27"/>
     </row>
     <row r="123" spans="14:15">
-      <c r="N123" s="29"/>
+      <c r="N123" s="27"/>
     </row>
     <row r="124" spans="14:15" ht="15.75" customHeight="1">
-      <c r="N124" s="29"/>
+      <c r="N124" s="27"/>
     </row>
     <row r="125" spans="14:15">
-      <c r="N125" s="29"/>
+      <c r="N125" s="27"/>
     </row>
     <row r="126" spans="14:15" ht="15.75" customHeight="1">
-      <c r="N126" s="29"/>
+      <c r="N126" s="27"/>
     </row>
     <row r="127" spans="14:15">
-      <c r="N127" s="29"/>
+      <c r="N127" s="27"/>
     </row>
     <row r="128" spans="14:15">
-      <c r="N128" s="29"/>
+      <c r="N128" s="27"/>
     </row>
     <row r="129" spans="14:14">
-      <c r="N129" s="29"/>
+      <c r="N129" s="27"/>
     </row>
     <row r="130" spans="14:14">
-      <c r="N130" s="29"/>
+      <c r="N130" s="27"/>
     </row>
     <row r="131" spans="14:14">
-      <c r="N131" s="29"/>
+      <c r="N131" s="27"/>
     </row>
     <row r="132" spans="14:14">
-      <c r="N132" s="29"/>
+      <c r="N132" s="27"/>
     </row>
     <row r="133" spans="14:14">
-      <c r="N133" s="29"/>
+      <c r="N133" s="27"/>
     </row>
     <row r="134" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N134" s="29"/>
+      <c r="N134" s="27"/>
     </row>
     <row r="135" spans="14:14">
-      <c r="N135" s="29"/>
+      <c r="N135" s="27"/>
     </row>
     <row r="136" spans="14:14">
-      <c r="N136" s="29"/>
+      <c r="N136" s="27"/>
     </row>
     <row r="137" spans="14:14">
-      <c r="N137" s="29"/>
+      <c r="N137" s="27"/>
     </row>
     <row r="138" spans="14:14">
-      <c r="N138" s="29"/>
+      <c r="N138" s="27"/>
     </row>
     <row r="139" spans="14:14">
-      <c r="N139" s="29"/>
+      <c r="N139" s="27"/>
     </row>
     <row r="140" spans="14:14">
-      <c r="N140" s="29"/>
+      <c r="N140" s="27"/>
     </row>
     <row r="141" spans="14:14">
-      <c r="N141" s="29"/>
+      <c r="N141" s="27"/>
     </row>
     <row r="142" spans="14:14">
-      <c r="N142" s="29"/>
+      <c r="N142" s="27"/>
     </row>
     <row r="143" spans="14:14">
-      <c r="N143" s="29"/>
+      <c r="N143" s="27"/>
     </row>
     <row r="144" spans="14:14">
-      <c r="N144" s="29"/>
+      <c r="N144" s="27"/>
     </row>
     <row r="145" spans="14:14">
-      <c r="N145" s="29"/>
+      <c r="N145" s="27"/>
     </row>
     <row r="146" spans="14:14">
-      <c r="N146" s="29"/>
+      <c r="N146" s="27"/>
     </row>
     <row r="147" spans="14:14">
-      <c r="N147" s="29"/>
+      <c r="N147" s="27"/>
     </row>
     <row r="148" spans="14:14">
-      <c r="N148" s="29"/>
+      <c r="N148" s="27"/>
     </row>
     <row r="149" spans="14:14">
-      <c r="N149" s="29"/>
+      <c r="N149" s="27"/>
     </row>
     <row r="150" spans="14:14">
-      <c r="N150" s="29"/>
+      <c r="N150" s="27"/>
     </row>
     <row r="151" spans="14:14">
-      <c r="N151" s="29"/>
+      <c r="N151" s="27"/>
     </row>
     <row r="152" spans="14:14">
-      <c r="N152" s="29"/>
+      <c r="N152" s="27"/>
     </row>
     <row r="153" spans="14:14">
-      <c r="N153" s="29"/>
+      <c r="N153" s="27"/>
     </row>
     <row r="154" spans="14:14">
-      <c r="N154" s="29"/>
+      <c r="N154" s="27"/>
     </row>
     <row r="155" spans="14:14">
-      <c r="N155" s="29"/>
+      <c r="N155" s="27"/>
     </row>
     <row r="156" spans="14:14">
-      <c r="N156" s="29"/>
+      <c r="N156" s="27"/>
     </row>
     <row r="157" spans="14:14">
-      <c r="N157" s="29"/>
+      <c r="N157" s="27"/>
     </row>
     <row r="158" spans="14:14">
-      <c r="N158" s="29"/>
+      <c r="N158" s="27"/>
     </row>
     <row r="159" spans="14:14">
-      <c r="N159" s="29"/>
+      <c r="N159" s="27"/>
     </row>
     <row r="160" spans="14:14">
-      <c r="N160" s="29"/>
+      <c r="N160" s="27"/>
     </row>
     <row r="161" spans="14:14">
-      <c r="N161" s="29"/>
+      <c r="N161" s="27"/>
     </row>
     <row r="162" spans="14:14">
-      <c r="N162" s="29"/>
+      <c r="N162" s="27"/>
     </row>
     <row r="163" spans="14:14">
-      <c r="N163" s="29"/>
+      <c r="N163" s="27"/>
     </row>
     <row r="164" spans="14:14">
-      <c r="N164" s="29"/>
+      <c r="N164" s="27"/>
     </row>
     <row r="165" spans="14:14">
-      <c r="N165" s="29"/>
+      <c r="N165" s="27"/>
     </row>
     <row r="166" spans="14:14">
-      <c r="N166" s="29"/>
+      <c r="N166" s="27"/>
     </row>
     <row r="167" spans="14:14">
-      <c r="N167" s="29"/>
+      <c r="N167" s="27"/>
     </row>
     <row r="168" spans="14:14">
-      <c r="N168" s="29"/>
+      <c r="N168" s="27"/>
     </row>
     <row r="169" spans="14:14">
-      <c r="N169" s="29"/>
+      <c r="N169" s="27"/>
     </row>
     <row r="170" spans="14:14">
-      <c r="N170" s="29"/>
+      <c r="N170" s="27"/>
     </row>
     <row r="171" spans="14:14">
-      <c r="N171" s="29"/>
+      <c r="N171" s="27"/>
     </row>
     <row r="172" spans="14:14">
-      <c r="N172" s="29"/>
+      <c r="N172" s="27"/>
     </row>
     <row r="173" spans="14:14">
-      <c r="N173" s="29"/>
+      <c r="N173" s="27"/>
     </row>
     <row r="174" spans="14:14">
-      <c r="N174" s="29"/>
+      <c r="N174" s="27"/>
     </row>
     <row r="175" spans="14:14">
-      <c r="N175" s="29"/>
+      <c r="N175" s="27"/>
     </row>
     <row r="176" spans="14:14">
-      <c r="N176" s="29"/>
+      <c r="N176" s="27"/>
     </row>
     <row r="177" spans="14:14">
-      <c r="N177" s="29"/>
+      <c r="N177" s="27"/>
     </row>
     <row r="178" spans="14:14">
-      <c r="N178" s="29"/>
+      <c r="N178" s="27"/>
     </row>
     <row r="179" spans="14:14">
-      <c r="N179" s="29"/>
+      <c r="N179" s="27"/>
     </row>
     <row r="180" spans="14:14">
-      <c r="N180" s="29"/>
+      <c r="N180" s="27"/>
     </row>
     <row r="181" spans="14:14">
-      <c r="N181" s="29"/>
+      <c r="N181" s="27"/>
     </row>
     <row r="182" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N182" s="29"/>
+      <c r="N182" s="27"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="29"/>
+      <c r="N183" s="27"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="29"/>
+      <c r="N184" s="27"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="29"/>
+      <c r="N185" s="27"/>
     </row>
     <row r="186" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N186" s="29"/>
+      <c r="N186" s="27"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="29"/>
+      <c r="N187" s="27"/>
     </row>
     <row r="188" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N188" s="29"/>
+      <c r="N188" s="27"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="29"/>
+      <c r="N189" s="27"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="29"/>
+      <c r="N190" s="27"/>
     </row>
     <row r="191" spans="14:14">
-      <c r="N191" s="29"/>
+      <c r="N191" s="27"/>
     </row>
     <row r="192" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N192" s="29"/>
+      <c r="N192" s="27"/>
     </row>
     <row r="193" spans="14:14">
-      <c r="N193" s="29"/>
+      <c r="N193" s="27"/>
     </row>
     <row r="194" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N194" s="29"/>
+      <c r="N194" s="27"/>
     </row>
     <row r="195" spans="14:14">
-      <c r="N195" s="29"/>
+      <c r="N195" s="27"/>
     </row>
     <row r="196" spans="14:14">
-      <c r="N196" s="29"/>
+      <c r="N196" s="27"/>
     </row>
     <row r="197" spans="14:14">
-      <c r="N197" s="29"/>
+      <c r="N197" s="27"/>
     </row>
     <row r="198" spans="14:14">
-      <c r="N198" s="29"/>
+      <c r="N198" s="27"/>
     </row>
     <row r="199" spans="14:14">
-      <c r="N199" s="29"/>
+      <c r="N199" s="27"/>
     </row>
     <row r="200" spans="14:14">
-      <c r="N200" s="29"/>
+      <c r="N200" s="27"/>
     </row>
     <row r="201" spans="14:14">
-      <c r="N201" s="29"/>
+      <c r="N201" s="27"/>
     </row>
     <row r="202" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N202" s="29"/>
+      <c r="N202" s="27"/>
     </row>
     <row r="203" spans="14:14">
-      <c r="N203" s="29"/>
+      <c r="N203" s="27"/>
     </row>
     <row r="204" spans="14:14">
-      <c r="N204" s="29"/>
+      <c r="N204" s="27"/>
     </row>
     <row r="205" spans="14:14">
-      <c r="N205" s="29"/>
+      <c r="N205" s="27"/>
     </row>
     <row r="206" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N206" s="29"/>
+      <c r="N206" s="27"/>
     </row>
     <row r="207" spans="14:14">
-      <c r="N207" s="29"/>
+      <c r="N207" s="27"/>
     </row>
     <row r="208" spans="14:14">
-      <c r="N208" s="29"/>
+      <c r="N208" s="27"/>
     </row>
     <row r="209" spans="14:14">
-      <c r="N209" s="29"/>
+      <c r="N209" s="27"/>
     </row>
     <row r="210" spans="14:14">
-      <c r="N210" s="29"/>
+      <c r="N210" s="27"/>
     </row>
     <row r="211" spans="14:14">
-      <c r="N211" s="29"/>
+      <c r="N211" s="27"/>
     </row>
     <row r="212" spans="14:14">
-      <c r="N212" s="29"/>
+      <c r="N212" s="27"/>
     </row>
     <row r="213" spans="14:14">
-      <c r="N213" s="29"/>
+      <c r="N213" s="27"/>
     </row>
     <row r="214" spans="14:14">
-      <c r="N214" s="29"/>
+      <c r="N214" s="27"/>
     </row>
     <row r="215" spans="14:14">
-      <c r="N215" s="29"/>
+      <c r="N215" s="27"/>
     </row>
     <row r="216" spans="14:14">
-      <c r="N216" s="29"/>
+      <c r="N216" s="27"/>
     </row>
     <row r="217" spans="14:14">
-      <c r="N217" s="29"/>
+      <c r="N217" s="27"/>
     </row>
     <row r="218" spans="14:14">
-      <c r="N218" s="29"/>
+      <c r="N218" s="27"/>
     </row>
     <row r="219" spans="14:14">
-      <c r="N219" s="29"/>
+      <c r="N219" s="27"/>
     </row>
     <row r="220" spans="14:14">
-      <c r="N220" s="29"/>
+      <c r="N220" s="27"/>
     </row>
     <row r="221" spans="14:14">
-      <c r="N221" s="29"/>
+      <c r="N221" s="27"/>
     </row>
     <row r="222" spans="14:14">
-      <c r="N222" s="29"/>
+      <c r="N222" s="27"/>
     </row>
     <row r="223" spans="14:14">
-      <c r="N223" s="29"/>
+      <c r="N223" s="27"/>
     </row>
     <row r="224" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N224" s="29"/>
+      <c r="N224" s="27"/>
     </row>
     <row r="225" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N225" s="29"/>
+      <c r="N225" s="27"/>
     </row>
     <row r="226" spans="14:14">
-      <c r="N226" s="29"/>
+      <c r="N226" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -6574,47 +8097,24 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74D4F4C-7CCF-485A-ABA9-3D7E495B78E0}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="U11" sqref="U11:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -6658,7 +8158,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>300</v>
       </c>
@@ -6696,7 +8196,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -6734,7 +8234,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -6772,7 +8272,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -6810,7 +8310,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -6848,7 +8348,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -6886,7 +8386,7 @@
         <v>6326</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>301</v>
       </c>
@@ -6930,7 +8430,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>301</v>
       </c>
@@ -6968,7 +8468,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>301</v>
       </c>
@@ -7006,7 +8506,7 @@
         <v>10220</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -7043,8 +8543,14 @@
       <c r="Q11">
         <v>7999</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="U11" t="s">
+        <v>324</v>
+      </c>
+      <c r="V11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7081,8 +8587,16 @@
       <c r="Q12">
         <v>6964</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="U12" s="20">
+        <f>屏柵線觀察!L5</f>
+        <v>46390.455000000002</v>
+      </c>
+      <c r="V12" s="20">
+        <f>屏柵線觀察!L4</f>
+        <v>42261.995000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -7119,8 +8633,16 @@
       <c r="Q13">
         <v>7996</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="U13">
+        <f>屏柵線觀察!L7</f>
+        <v>34108.195</v>
+      </c>
+      <c r="V13">
+        <f>屏柵線觀察!L6</f>
+        <v>37853.305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -7157,8 +8679,16 @@
       <c r="Q14">
         <v>7989</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="U14">
+        <f>屏柵線觀察!L9</f>
+        <v>5068.9449999999997</v>
+      </c>
+      <c r="V14" s="20">
+        <f>屏柵線觀察!L8</f>
+        <v>4679.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -7195,8 +8725,16 @@
       <c r="Q15">
         <v>6924</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="U15">
+        <f>屏柵線觀察!L11</f>
+        <v>30339.095000000001</v>
+      </c>
+      <c r="V15">
+        <f>屏柵線觀察!L10</f>
+        <v>23681.424999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -7233,8 +8771,16 @@
       <c r="Q16">
         <v>6975</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="U16">
+        <f>屏柵線觀察!L13</f>
+        <v>7492.9000000000005</v>
+      </c>
+      <c r="V16" s="20">
+        <f>屏柵線觀察!L12</f>
+        <v>14479.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -7271,8 +8817,16 @@
       <c r="Q17">
         <v>15759</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="U17">
+        <f>屏柵線觀察!L15</f>
+        <v>5664.4049999999997</v>
+      </c>
+      <c r="V17">
+        <f>屏柵線觀察!L14</f>
+        <v>3371.0150000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -7297,22 +8851,30 @@
       <c r="K18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="6"/>
       <c r="M18">
         <v>5869</v>
       </c>
       <c r="N18">
         <v>5872</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="10"/>
       <c r="P18">
         <v>5872</v>
       </c>
       <c r="Q18">
         <v>5869</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="U18" s="20">
+        <f>屏柵線觀察!L17</f>
+        <v>40286.86</v>
+      </c>
+      <c r="V18" s="20">
+        <f>屏柵線觀察!L16</f>
+        <v>25851.360000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -7349,8 +8911,16 @@
       <c r="Q19">
         <v>7452</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="U19">
+        <f>屏柵線觀察!L19</f>
+        <v>26395.399999999998</v>
+      </c>
+      <c r="V19">
+        <f>屏柵線觀察!L18</f>
+        <v>37153.885000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -7387,8 +8957,16 @@
       <c r="Q20">
         <v>7462</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="U20">
+        <f>屏柵線觀察!L21</f>
+        <v>19066.805</v>
+      </c>
+      <c r="V20" s="20">
+        <f>屏柵線觀察!L20</f>
+        <v>18439.849999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -7428,8 +9006,16 @@
       <c r="Q21">
         <v>5865</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="U21">
+        <f>屏柵線觀察!L23</f>
+        <v>21544.16</v>
+      </c>
+      <c r="V21">
+        <f>屏柵線觀察!L22</f>
+        <v>20743.954999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -7466,8 +9052,16 @@
       <c r="Q22">
         <v>7536</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="U22">
+        <f>屏柵線觀察!L25</f>
+        <v>20684.810000000001</v>
+      </c>
+      <c r="V22" s="20">
+        <f>屏柵線觀察!L24</f>
+        <v>20949.785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -7504,8 +9098,16 @@
       <c r="Q23">
         <v>5831</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="U23">
+        <f>屏柵線觀察!L27</f>
+        <v>13419.27</v>
+      </c>
+      <c r="V23">
+        <f>屏柵線觀察!L26</f>
+        <v>15222.730000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -7542,8 +9144,16 @@
       <c r="Q24">
         <v>5335</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="U24" s="20">
+        <f>屏柵線觀察!L29</f>
+        <v>12740.73</v>
+      </c>
+      <c r="V24" s="20">
+        <f>屏柵線觀察!L28</f>
+        <v>12737.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="J25" s="1" t="s">
         <v>38</v>
       </c>
@@ -7563,7 +9173,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:22">
       <c r="J26" s="1" t="s">
         <v>38</v>
       </c>
@@ -7583,7 +9193,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:22">
       <c r="J27" s="1" t="s">
         <v>38</v>
       </c>
@@ -7603,7 +9213,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:22">
       <c r="J28" s="1" t="s">
         <v>38</v>
       </c>
@@ -7623,7 +9233,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:22">
       <c r="J29" s="1" t="s">
         <v>38</v>
       </c>
@@ -7646,7 +9256,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:22">
       <c r="J30" s="1" t="s">
         <v>38</v>
       </c>
@@ -7666,7 +9276,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:22">
       <c r="J31" s="1" t="s">
         <v>38</v>
       </c>
@@ -7686,7 +9296,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:22">
       <c r="J32" s="1" t="s">
         <v>300</v>
       </c>

--- a/ta/TRTS-4S屏柵線.xlsx
+++ b/ta/TRTS-4S屏柵線.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F3F97-63FE-492E-ABAC-6F4B9DD80552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E615AD8-F6CB-42A9-BBD0-55FC17003F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E705DE73-7DBA-4EF4-BE7B-111AF8D99A31}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,13 +1537,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,6 +1591,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1576,44 +1606,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1953,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B91B70-CCE3-4F38-82D1-372C96A2E9C6}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1964,7 +1961,7 @@
     <col min="2" max="2" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2133,7 +2130,7 @@
         <v>6326</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2152,10 +2149,10 @@
       <c r="H9">
         <v>6312</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>10220</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2212,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2252,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2272,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2612,7 @@
         <v>6751</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>332</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>8534</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>332</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>7962</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>332</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>332</v>
       </c>
@@ -2695,7 +2692,7 @@
         <v>6722</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>332</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>7772</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>332</v>
       </c>
@@ -2735,7 +2732,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>332</v>
       </c>
@@ -2754,13 +2751,10 @@
       <c r="H39">
         <v>6781</v>
       </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>332</v>
       </c>
@@ -2779,13 +2773,8 @@
       <c r="H40">
         <v>15235</v>
       </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-    </row>
-    <row r="41" spans="1:16">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>332</v>
       </c>
@@ -2805,7 +2794,7 @@
         <v>7998</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>332</v>
       </c>
@@ -2825,7 +2814,7 @@
         <v>6306</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>332</v>
       </c>
@@ -2845,7 +2834,7 @@
         <v>27265</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>332</v>
       </c>
@@ -2865,7 +2854,7 @@
         <v>27267</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>332</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>15828</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>309</v>
       </c>
@@ -2905,7 +2894,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>309</v>
       </c>
@@ -2925,7 +2914,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -2945,7 +2934,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>300</v>
       </c>
@@ -2965,7 +2954,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -2985,7 +2974,7 @@
         <v>7025</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
@@ -3005,7 +2994,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
@@ -3025,7 +3014,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -3045,7 +3034,7 @@
         <v>16695</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3065,7 +3054,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3076,7 @@
         <v>5869</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
@@ -3107,7 +3096,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -3147,7 +3136,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -3167,7 +3156,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -3187,7 +3176,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3196,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -3226,8 +3215,10 @@
       <c r="H62">
         <v>5341</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
@@ -3247,7 +3238,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -4015,24 +4006,19 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="49"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="49"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="49"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="F20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4075,18 +4061,18 @@
       <c r="F1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
@@ -4107,18 +4093,18 @@
       <c r="F2">
         <v>31700.909999999996</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
@@ -4139,18 +4125,18 @@
       <c r="F3">
         <v>33067.789999999994</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
@@ -4171,18 +4157,18 @@
       <c r="F4">
         <v>4411.42</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="8" t="s">
@@ -4203,18 +4189,18 @@
       <c r="F5">
         <v>33585.645000000004</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="8" t="s">
@@ -4235,18 +4221,18 @@
       <c r="F6">
         <v>9174.02</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
@@ -4267,18 +4253,18 @@
       <c r="F7">
         <v>6022.2249999999995</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="8" t="s">
@@ -4299,18 +4285,18 @@
       <c r="F8">
         <v>33242.775000000001</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="8" t="s">
@@ -4331,18 +4317,18 @@
       <c r="F9">
         <v>25381.729999999996</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="8" t="s">
@@ -4363,18 +4349,18 @@
       <c r="F10">
         <v>19867.66</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="8" t="s">
@@ -4395,18 +4381,18 @@
       <c r="F11">
         <v>18677.57</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="8" t="s">
@@ -4427,18 +4413,18 @@
       <c r="F12">
         <v>18128.565000000002</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8" t="s">
@@ -4459,18 +4445,18 @@
       <c r="F13">
         <v>11400.324999999999</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="8" t="s">
@@ -4491,227 +4477,217 @@
       <c r="F14">
         <v>11086.87</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="9:20">
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
     </row>
     <row r="25" spans="9:20">
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
     </row>
     <row r="26" spans="9:20">
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
     </row>
     <row r="27" spans="9:20">
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
     </row>
     <row r="28" spans="9:20">
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -4719,6 +4695,16 @@
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4759,18 +4745,18 @@
     <row r="1" spans="1:15">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="N1" s="14" t="s">
         <v>87</v>
       </c>
@@ -4779,26 +4765,26 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4807,8 +4793,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
@@ -4847,7 +4833,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4893,7 +4879,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="15" t="s">
         <v>57</v>
       </c>
@@ -4937,7 +4923,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4983,7 +4969,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -5027,7 +5013,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -5073,7 +5059,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -5117,7 +5103,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -5163,7 +5149,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
@@ -5207,7 +5193,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5253,7 +5239,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
@@ -5297,7 +5283,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -5343,7 +5329,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -5387,7 +5373,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5433,7 +5419,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
@@ -5477,7 +5463,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -5523,7 +5509,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="15" t="s">
         <v>68</v>
       </c>
@@ -5567,7 +5553,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -5613,7 +5599,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="15" t="s">
         <v>68</v>
       </c>
@@ -5657,7 +5643,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -5703,7 +5689,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="30"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="15" t="s">
         <v>68</v>
       </c>
@@ -5747,7 +5733,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="37" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -5793,7 +5779,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="15" t="s">
         <v>68</v>
       </c>
@@ -5837,7 +5823,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="37" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -5883,7 +5869,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
@@ -5927,7 +5913,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -5973,7 +5959,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="43"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -6027,18 +6013,18 @@
     <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
       <c r="N31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6047,26 +6033,26 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="37" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
       <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
@@ -6075,8 +6061,8 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
@@ -6115,7 +6101,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -6161,7 +6147,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="30"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="15" t="s">
         <v>57</v>
       </c>
@@ -6205,7 +6191,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -6251,7 +6237,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="30"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
@@ -6295,7 +6281,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -6341,7 +6327,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
@@ -6385,7 +6371,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -6431,7 +6417,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="15" t="s">
         <v>63</v>
       </c>
@@ -6475,7 +6461,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -6521,7 +6507,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="30"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
@@ -6565,7 +6551,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -6611,7 +6597,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="30"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
       </c>
@@ -6655,7 +6641,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -6701,7 +6687,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="30"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="15" t="s">
         <v>63</v>
       </c>
@@ -6745,7 +6731,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -6791,7 +6777,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="30"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="15" t="s">
         <v>68</v>
       </c>
@@ -6835,7 +6821,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -6881,7 +6867,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="30"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
@@ -6925,7 +6911,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -6971,7 +6957,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="30"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="15" t="s">
         <v>68</v>
       </c>
@@ -7015,7 +7001,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="37" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -7061,7 +7047,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="30"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="15" t="s">
         <v>68</v>
       </c>
@@ -7105,7 +7091,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="37" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7151,7 +7137,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="30"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
@@ -7195,7 +7181,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -7241,7 +7227,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="43"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
@@ -8061,6 +8047,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -8073,30 +8083,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
